--- a/data/trans_camb/P19C02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 13,0</t>
+          <t>-0,93; 13,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 21,72</t>
+          <t>8,17; 22,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,2; 26,43</t>
+          <t>13,34; 26,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 6,97</t>
+          <t>-10,28; 6,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 10,85</t>
+          <t>-6,04; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 20,83</t>
+          <t>5,68; 20,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,68</t>
+          <t>-2,45; 8,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 14,77</t>
+          <t>3,51; 14,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 22,08</t>
+          <t>12,71; 22,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 41,68</t>
+          <t>-2,6; 43,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,44; 69,14</t>
+          <t>21,07; 71,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,72; 84,9</t>
+          <t>34,58; 87,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 18,67</t>
+          <t>-21,94; 18,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 28,93</t>
+          <t>-12,46; 27,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 55,64</t>
+          <t>12,06; 55,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 24,15</t>
+          <t>-6,12; 25,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 41,78</t>
+          <t>8,25; 42,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,55; 64,0</t>
+          <t>30,4; 64,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 9,64</t>
+          <t>-5,72; 10,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 9,73</t>
+          <t>-5,77; 10,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 23,42</t>
+          <t>9,1; 24,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,88</t>
+          <t>-6,58; 9,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 14,85</t>
+          <t>-0,7; 15,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 26,35</t>
+          <t>12,99; 26,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,15</t>
+          <t>-3,92; 7,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,59</t>
+          <t>-1,21; 10,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 22,82</t>
+          <t>12,79; 23,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 27,67</t>
+          <t>-13,31; 29,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 27,89</t>
+          <t>-14,04; 30,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,44; 67,26</t>
+          <t>20,88; 69,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 24,3</t>
+          <t>-15,23; 26,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 42,42</t>
+          <t>-2,46; 41,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,22; 74,53</t>
+          <t>30,71; 80,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 19,74</t>
+          <t>-9,38; 20,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 29,21</t>
+          <t>-3,08; 28,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 63,13</t>
+          <t>30,26; 65,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 6,08</t>
+          <t>-5,62; 6,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,73</t>
+          <t>-5,61; 7,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 19,15</t>
+          <t>-23,08; 19,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 6,6</t>
+          <t>-12,43; 7,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 14,34</t>
+          <t>-8,72; 14,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,95; 33,25</t>
+          <t>11,52; 31,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 4,85</t>
+          <t>-5,24; 4,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,46</t>
+          <t>-4,54; 7,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 20,19</t>
+          <t>-16,47; 21,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 22,71</t>
+          <t>-16,39; 23,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 29,24</t>
+          <t>-16,33; 27,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 64,51</t>
+          <t>-66,13; 63,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 24,03</t>
+          <t>-30,47; 26,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 49,84</t>
+          <t>-22,48; 46,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,59; 121,1</t>
+          <t>27,45; 112,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 17,14</t>
+          <t>-15,52; 14,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 26,3</t>
+          <t>-13,3; 25,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 65,58</t>
+          <t>-51,07; 69,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,31</t>
+          <t>-3,95; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,48</t>
+          <t>1,64; 10,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 22,18</t>
+          <t>13,09; 21,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 11,58</t>
+          <t>1,47; 11,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,0</t>
+          <t>4,56; 14,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,22; 51,72</t>
+          <t>18,26; 50,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,43</t>
+          <t>-0,05; 6,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,37</t>
+          <t>4,5; 11,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 40,54</t>
+          <t>16,96; 36,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 19,89</t>
+          <t>-14,98; 22,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 48,71</t>
+          <t>6,19; 46,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,65; 101,38</t>
+          <t>51,12; 100,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 44,32</t>
+          <t>4,61; 43,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,54; 56,69</t>
+          <t>13,92; 54,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,69; 207,28</t>
+          <t>59,91; 190,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 27,03</t>
+          <t>-0,32; 26,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,86; 47,23</t>
+          <t>16,33; 45,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,58; 163,16</t>
+          <t>62,52; 145,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 7,95</t>
+          <t>-4,36; 7,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,54</t>
+          <t>7,7; 20,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,82; 27,48</t>
+          <t>13,41; 27,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 7,47</t>
+          <t>-2,57; 7,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 15,24</t>
+          <t>3,15; 14,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 19,44</t>
+          <t>1,33; 18,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,14</t>
+          <t>-2,06; 6,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 15,41</t>
+          <t>6,4; 15,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 20,07</t>
+          <t>7,5; 20,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 58,83</t>
+          <t>-20,24; 57,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,43; 146,45</t>
+          <t>36,16; 153,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>60,68; 196,52</t>
+          <t>63,25; 201,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 35,64</t>
+          <t>-9,83; 36,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,77; 72,08</t>
+          <t>11,07; 71,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,47; 92,37</t>
+          <t>7,63; 88,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 33,02</t>
+          <t>-8,15; 33,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>26,9; 81,18</t>
+          <t>25,92; 79,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,18; 106,27</t>
+          <t>35,82; 103,43</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 4,59</t>
+          <t>-12,19; 5,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 8,92</t>
+          <t>-8,87; 8,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,18; 36,01</t>
+          <t>11,31; 36,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,42</t>
+          <t>-2,15; 5,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,65</t>
+          <t>3,8; 12,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,62; 23,22</t>
+          <t>14,29; 23,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,44</t>
+          <t>-2,75; 4,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,48</t>
+          <t>2,93; 10,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16,02; 25,36</t>
+          <t>16,3; 25,44</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 17,44</t>
+          <t>-35,22; 20,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 33,14</t>
+          <t>-25,25; 29,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,18; 131,57</t>
+          <t>34,48; 135,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 24,58</t>
+          <t>-8,57; 27,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,53; 57,0</t>
+          <t>14,78; 57,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>57,16; 107,88</t>
+          <t>55,67; 109,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 18,89</t>
+          <t>-10,26; 19,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>10,39; 45,2</t>
+          <t>10,44; 43,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>60,96; 109,53</t>
+          <t>61,5; 108,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,5</t>
+          <t>-1,66; 3,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,71</t>
+          <t>3,54; 8,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,87; 19,19</t>
+          <t>3,58; 19,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,47</t>
+          <t>-0,41; 4,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,58</t>
+          <t>5,78; 10,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,5; 29,57</t>
+          <t>16,72; 31,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,39</t>
+          <t>-0,31; 3,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,02</t>
+          <t>5,39; 9,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,84; 22,97</t>
+          <t>13,25; 22,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 12,76</t>
+          <t>-5,59; 12,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,93; 31,91</t>
+          <t>11,66; 32,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,62; 68,05</t>
+          <t>13,18; 69,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 15,88</t>
+          <t>-1,34; 16,24</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>17,85; 37,57</t>
+          <t>18,98; 37,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>55,53; 104,46</t>
+          <t>55,47; 101,99</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 12,14</t>
+          <t>-1,02; 11,89</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>16,74; 32,04</t>
+          <t>17,72; 32,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,79; 80,4</t>
+          <t>45,34; 78,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
